--- a/processed_data.xlsx
+++ b/processed_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\william\Qualtrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99AE5DB1-A0F0-4381-8176-B7D659AAB3A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F745200-8430-4E1A-8D62-88FF1C269964}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8484" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -502,9 +502,6 @@
     <t>William Kang</t>
   </si>
   <si>
-    <t>kaangwill@gmail.com</t>
-  </si>
-  <si>
     <t>2023-05-19 12:30:35</t>
   </si>
   <si>
@@ -568,9 +565,6 @@
     <t>R_ywk8dU6DHEpFCXn</t>
   </si>
   <si>
-    <t>william.kang@ubc.ca</t>
-  </si>
-  <si>
     <t>123456789</t>
   </si>
   <si>
@@ -620,13 +614,19 @@
   </si>
   <si>
     <t>http://s.qualtrics.com/WRQualtricsControlPanel/File.php?F=F_2cpE6kBO4QH4j7S</t>
+  </si>
+  <si>
+    <t>kagill@gmail.com</t>
+  </si>
+  <si>
+    <t>willing@ubc.ca</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -638,6 +638,14 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -672,16 +680,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -985,7 +996,7 @@
   <dimension ref="A1:CE9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1487,14 +1498,14 @@
       <c r="C3" t="s">
         <v>159</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F3" t="s">
         <v>160</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>161</v>
-      </c>
-      <c r="G3" t="s">
-        <v>162</v>
       </c>
       <c r="H3" t="s">
         <v>158</v>
@@ -1559,16 +1570,16 @@
     </row>
     <row r="4" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F4" t="s">
         <v>163</v>
       </c>
-      <c r="B4" t="s">
-        <v>158</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>164</v>
-      </c>
-      <c r="G4" t="s">
-        <v>165</v>
       </c>
       <c r="H4" t="s">
         <v>158</v>
@@ -1586,10 +1597,10 @@
         <v>3488</v>
       </c>
       <c r="N4" t="s">
+        <v>165</v>
+      </c>
+      <c r="O4" t="s">
         <v>166</v>
-      </c>
-      <c r="O4" t="s">
-        <v>167</v>
       </c>
       <c r="P4" t="s">
         <v>158</v>
@@ -1645,22 +1656,22 @@
     </row>
     <row r="5" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" t="s">
         <v>168</v>
       </c>
-      <c r="B5" t="s">
-        <v>158</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>169</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>170</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>171</v>
-      </c>
-      <c r="G5" t="s">
-        <v>172</v>
       </c>
       <c r="H5" t="s">
         <v>158</v>
@@ -1678,7 +1689,7 @@
         <v>2400</v>
       </c>
       <c r="O5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P5" t="s">
         <v>158</v>
@@ -1722,25 +1733,25 @@
     </row>
     <row r="6" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" t="s">
         <v>174</v>
       </c>
-      <c r="B6" t="s">
-        <v>158</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>175</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>176</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>177</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>178</v>
-      </c>
-      <c r="G6" t="s">
-        <v>179</v>
       </c>
       <c r="H6" t="s">
         <v>158</v>
@@ -1758,7 +1769,7 @@
         <v>1000</v>
       </c>
       <c r="O6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P6" t="s">
         <v>158</v>
@@ -1811,7 +1822,7 @@
     </row>
     <row r="7" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B7" t="s">
         <v>158</v>
@@ -1819,17 +1830,17 @@
       <c r="C7" t="s">
         <v>159</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F7" t="s">
         <v>182</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
         <v>183</v>
-      </c>
-      <c r="F7" t="s">
-        <v>184</v>
-      </c>
-      <c r="G7" t="s">
-        <v>185</v>
       </c>
       <c r="H7" t="s">
         <v>158</v>
@@ -1847,7 +1858,7 @@
         <v>3500</v>
       </c>
       <c r="O7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="P7" t="s">
         <v>158</v>
@@ -1903,25 +1914,25 @@
     </row>
     <row r="8" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" t="s">
+        <v>186</v>
+      </c>
+      <c r="D8" t="s">
         <v>187</v>
       </c>
-      <c r="B8" t="s">
-        <v>158</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>188</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
         <v>189</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G8" t="s">
         <v>190</v>
-      </c>
-      <c r="F8" t="s">
-        <v>191</v>
-      </c>
-      <c r="G8" t="s">
-        <v>192</v>
       </c>
       <c r="H8" t="s">
         <v>158</v>
@@ -1939,7 +1950,7 @@
         <v>2389</v>
       </c>
       <c r="O8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="P8" t="s">
         <v>158</v>
@@ -1989,25 +2000,25 @@
     </row>
     <row r="9" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E9" t="s">
         <v>194</v>
       </c>
-      <c r="B9" t="s">
-        <v>158</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="F9" t="s">
         <v>195</v>
       </c>
-      <c r="D9" t="s">
-        <v>189</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
         <v>196</v>
-      </c>
-      <c r="F9" t="s">
-        <v>197</v>
-      </c>
-      <c r="G9" t="s">
-        <v>198</v>
       </c>
       <c r="H9" t="s">
         <v>158</v>
@@ -2025,7 +2036,7 @@
         <v>100</v>
       </c>
       <c r="O9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="P9" t="s">
         <v>158</v>
@@ -2080,6 +2091,10 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{83203172-15D0-4FE8-A561-B3512EDB46CC}"/>
+    <hyperlink ref="D7" r:id="rId2" xr:uid="{15BD4993-7403-4676-B41D-26F7F390A32E}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/processed_data.xlsx
+++ b/processed_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\william\Qualtrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F745200-8430-4E1A-8D62-88FF1C269964}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6283D41-E8E0-4758-8A48-AD6F7D660E42}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8484" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -996,7 +996,7 @@
   <dimension ref="A1:CE9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
